--- a/biology/Histoire de la zoologie et de la botanique/Sarah_Amherst/Sarah_Amherst.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Sarah_Amherst/Sarah_Amherst.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sarah Amherst, comtesse Amherst (née Archer, plus tard Sarah Windsor, comtesse de Plymouth ; 1762-1838), créditée comme Sarah Amherst, est une naturaliste et botaniste britannique qui vivait en Inde. Elle identifie plusieurs espèces qui portent son nom, dont une variété de faisan (Chrysolophus amherstiae) et un arbre à fleurs (Amherstia nobilis)[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sarah Amherst, comtesse Amherst (née Archer, plus tard Sarah Windsor, comtesse de Plymouth ; 1762-1838), créditée comme Sarah Amherst, est une naturaliste et botaniste britannique qui vivait en Inde. Elle identifie plusieurs espèces qui portent son nom, dont une variété de faisan (Chrysolophus amherstiae) et un arbre à fleurs (Amherstia nobilis),.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Mariages et descendance</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Elle est la fille d'Andrew Archer (2e baron Archer) et Sarah West, fille de James West. Elle est mariée à son cousin germain Other Windsor (5e comte de Plymouth), de 1778 jusqu'à sa mort en 1799. Ils ont les enfants suivants :
 Other Windsor (6e comte de Plymouth) (1789–1833) ;
